--- a/wireframes/reimProjectUserStories.xlsx
+++ b/wireframes/reimProjectUserStories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmas_d2t5g6y\Desktop\Programming\reimProject\client_side\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmas_d2t5g6y\Desktop\Programming\reimProjectFront\wireframes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E791695-4E76-4563-9D5B-8AA44B6FD26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B46A05-BF22-4BBD-96B5-3B7D160B689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11010" yWindow="4230" windowWidth="21600" windowHeight="11385" xr2:uid="{6845FBB1-EB1F-4702-B152-E1AAE10B0FDD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{6845FBB1-EB1F-4702-B152-E1AAE10B0FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="80">
   <si>
     <t>As a…</t>
   </si>
@@ -88,6 +88,192 @@
   </si>
   <si>
     <t>Help make informed business decisions based on the information given</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria:</t>
+  </si>
+  <si>
+    <t>Given</t>
+  </si>
+  <si>
+    <t>The user is on the log in page</t>
+  </si>
+  <si>
+    <t>When</t>
+  </si>
+  <si>
+    <t>A username is entered</t>
+  </si>
+  <si>
+    <t>A password is entered</t>
+  </si>
+  <si>
+    <t>The Log In button is pressed</t>
+  </si>
+  <si>
+    <t>Then</t>
+  </si>
+  <si>
+    <t>The main request page is loaded</t>
+  </si>
+  <si>
+    <t>Logging in as a member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The request list shows only requests by the member </t>
+  </si>
+  <si>
+    <t>The member is on the log in page</t>
+  </si>
+  <si>
+    <t>The member has the correct log in information</t>
+  </si>
+  <si>
+    <t>The Submit New Bug button appears on the page</t>
+  </si>
+  <si>
+    <t>Logging in as a manager</t>
+  </si>
+  <si>
+    <t>The manager is on the log in page</t>
+  </si>
+  <si>
+    <t>The manager has the correct log in information</t>
+  </si>
+  <si>
+    <t>The request list shows all requests made</t>
+  </si>
+  <si>
+    <t>The statistics panel appears below the request list</t>
+  </si>
+  <si>
+    <t>Logging in without a username/password</t>
+  </si>
+  <si>
+    <t>one or both login fields are empty</t>
+  </si>
+  <si>
+    <t>The Log in button is pressed</t>
+  </si>
+  <si>
+    <t>An alert tells the user to enter both a username and password</t>
+  </si>
+  <si>
+    <t>Logging in with an invalid username/password</t>
+  </si>
+  <si>
+    <t>one or both login fields are incorrect</t>
+  </si>
+  <si>
+    <t>An alert tells the user that their account could not be found</t>
+  </si>
+  <si>
+    <t>Viewing a request as a member</t>
+  </si>
+  <si>
+    <t>The member is on the main request page</t>
+  </si>
+  <si>
+    <t>The member clicks the Open button next to a request</t>
+  </si>
+  <si>
+    <t>The page for that request is loaded</t>
+  </si>
+  <si>
+    <t>Viewing a request as a manager</t>
+  </si>
+  <si>
+    <t>The manager is on the main request page</t>
+  </si>
+  <si>
+    <t>The manager clicks the Open button next to a request</t>
+  </si>
+  <si>
+    <t>Controls to approve/deny the request also loads</t>
+  </si>
+  <si>
+    <t>A comment box also loads</t>
+  </si>
+  <si>
+    <t>Creating a New Request</t>
+  </si>
+  <si>
+    <t>The user is a member</t>
+  </si>
+  <si>
+    <t>The member is on the Main Request page</t>
+  </si>
+  <si>
+    <t>The member clicks on the Submit New Bug Button</t>
+  </si>
+  <si>
+    <t>The New Request page is loaded</t>
+  </si>
+  <si>
+    <t>The member enters a Bug Name</t>
+  </si>
+  <si>
+    <t>The member enters a Bug Description</t>
+  </si>
+  <si>
+    <t>The member presses the Submit button</t>
+  </si>
+  <si>
+    <t>Creating a New Request with an Empty Field</t>
+  </si>
+  <si>
+    <t>The member leaves the Bug Name or Description empty</t>
+  </si>
+  <si>
+    <t>An alert tells the member to fill out both fields</t>
+  </si>
+  <si>
+    <t>The member types in a Name that is too long</t>
+  </si>
+  <si>
+    <t>An alert tells the member to limit their name to 100 characters or fewer</t>
+  </si>
+  <si>
+    <t>Creating a New Request with an Invalid Name</t>
+  </si>
+  <si>
+    <t>Creating a New Request with an Invalid Description</t>
+  </si>
+  <si>
+    <t>The member types in a Description that is too long</t>
+  </si>
+  <si>
+    <t>An alert tells the member to limit their name to 250 characters or fewer</t>
+  </si>
+  <si>
+    <t>Approving or Denying a Request</t>
+  </si>
+  <si>
+    <t>The user is a Manager</t>
+  </si>
+  <si>
+    <t>The manager is viewing a single request</t>
+  </si>
+  <si>
+    <t>The manager types an optional comment or leaves the field empty</t>
+  </si>
+  <si>
+    <t>The manager presses the Approve or Deny button</t>
+  </si>
+  <si>
+    <t>A message notifies the manager that the request's Approval Status was updated</t>
+  </si>
+  <si>
+    <t>Approving or Denying a Request with an Invalid Comment</t>
+  </si>
+  <si>
+    <t>The manager types an optional comment that is too long</t>
+  </si>
+  <si>
+    <t>An alert tells the Manager to limit their request to 250 characters or fewer</t>
+  </si>
+  <si>
+    <t>A message notifies the member that they successfully uploaded a new bug</t>
   </si>
 </sst>
 </file>
@@ -103,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +314,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -141,11 +333,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,16 +653,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C1692A-1303-4D29-980F-4085C7F4A270}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.42578125" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -517,59 +710,723 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
